--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1161.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1161.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.247921818947108</v>
+        <v>1.164982199668884</v>
       </c>
       <c r="B1">
-        <v>1.368269052116753</v>
+        <v>2.420440673828125</v>
       </c>
       <c r="C1">
-        <v>1.613750736821205</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.803643880599852</v>
+        <v>2.37702488899231</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.235623598098755</v>
       </c>
     </row>
   </sheetData>
